--- a/data/E nominal esperado Trim-1siguienteTrim 3Tr2016 a 1Tr2021 BCRA REM.xlsx
+++ b/data/E nominal esperado Trim-1siguienteTrim 3Tr2016 a 1Tr2021 BCRA REM.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive-113626893456251289633/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/BCRA REM/Preparado para usar/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive-113626893456251289633/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AFA350-A400-944C-B0EB-379B7FFBE1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10B7AC7-9A16-8344-BE03-C69D16748852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27880" yWindow="-1300" windowWidth="27320" windowHeight="14900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1840" yWindow="460" windowWidth="27320" windowHeight="14900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cuadros de Resultados" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Cuadros de Resultados'!$B$1:$C$1</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Cuadros de Resultados'!$B$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
   <si>
     <t>Fecha del pronóstico</t>
   </si>
@@ -149,6 +149,24 @@
   </si>
   <si>
     <t>1q2021 e</t>
+  </si>
+  <si>
+    <t>trimestre</t>
+  </si>
+  <si>
+    <t>año</t>
+  </si>
+  <si>
+    <t>4ºTr</t>
+  </si>
+  <si>
+    <t>1ºTr</t>
+  </si>
+  <si>
+    <t>2ºTr</t>
+  </si>
+  <si>
+    <t>3ºTr</t>
   </si>
 </sst>
 </file>
@@ -279,7 +297,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -318,6 +336,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -670,223 +706,337 @@
     <tabColor theme="3" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="116" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="2" max="4" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="15">
+        <v>2016</v>
+      </c>
+      <c r="E2" s="4">
         <v>15.861866803619124</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="15">
+        <v>2017</v>
+      </c>
+      <c r="E3" s="4">
         <v>12.354869265071562</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="15">
+        <v>2017</v>
+      </c>
+      <c r="E4" s="4">
         <v>16.395732030675106</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="15">
+        <v>2017</v>
+      </c>
+      <c r="E5" s="4">
         <v>16.536992641727934</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="15">
+        <v>2017</v>
+      </c>
+      <c r="E6" s="10">
         <v>17.882091053498176</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="18">
+        <v>2018</v>
+      </c>
+      <c r="E7" s="6">
         <v>18.357526916151059</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="18">
+        <v>2018</v>
+      </c>
+      <c r="E8" s="4">
         <v>19.952855495531534</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="18">
+        <v>2018</v>
+      </c>
+      <c r="E9" s="4">
         <v>24.333171768707441</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="18">
+        <v>2018</v>
+      </c>
+      <c r="E10" s="4">
         <v>35.759284457812001</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="16">
+        <v>2019</v>
+      </c>
+      <c r="E11" s="4">
         <v>41.586032609987264</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="16">
+        <v>2019</v>
+      </c>
+      <c r="E12" s="4">
         <v>42.379621933178292</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="16">
+        <v>2019</v>
+      </c>
+      <c r="E13" s="9">
         <v>52.085621351762889</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="16">
+        <v>2019</v>
+      </c>
+      <c r="E14" s="9">
         <v>56.886072012968299</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="20">
+        <v>2020</v>
+      </c>
+      <c r="E15" s="9">
         <v>67.828389823647584</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="20">
+        <v>2020</v>
+      </c>
+      <c r="E16" s="9">
         <v>66.882322880574719</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="20">
+        <v>2020</v>
+      </c>
+      <c r="E17" s="9">
         <v>75.076295604572238</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="20">
+        <v>2020</v>
+      </c>
+      <c r="E18" s="9">
         <v>82.840283506273138</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="20">
+        <v>2021</v>
+      </c>
+      <c r="E19" s="14">
         <v>92.486681189854508</v>
       </c>
     </row>

--- a/data/E nominal esperado Trim-1siguienteTrim 3Tr2016 a 1Tr2021 BCRA REM.xlsx
+++ b/data/E nominal esperado Trim-1siguienteTrim 3Tr2016 a 1Tr2021 BCRA REM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive-113626893456251289633/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10B7AC7-9A16-8344-BE03-C69D16748852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00713BDE-E662-2441-B36E-1B6025DF7497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1840" yWindow="460" windowWidth="27320" windowHeight="14900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -742,7 +742,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D2" s="15">
         <v>2016</v>
@@ -759,10 +759,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="15">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="E3" s="4">
         <v>12.354869265071562</v>
@@ -776,7 +776,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="15">
         <v>2017</v>
@@ -793,7 +793,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="15">
         <v>2017</v>
@@ -810,7 +810,7 @@
         <v>37</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D6" s="15">
         <v>2017</v>
@@ -827,10 +827,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="18">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="E7" s="6">
         <v>18.357526916151059</v>
@@ -844,7 +844,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="18">
         <v>2018</v>
@@ -861,7 +861,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="18">
         <v>2018</v>
@@ -878,7 +878,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D10" s="18">
         <v>2018</v>
@@ -895,10 +895,10 @@
         <v>21</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="16">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E11" s="4">
         <v>41.586032609987264</v>
@@ -912,7 +912,7 @@
         <v>23</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="16">
         <v>2019</v>
@@ -929,7 +929,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" s="16">
         <v>2019</v>
@@ -946,7 +946,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D14" s="16">
         <v>2019</v>
@@ -963,10 +963,10 @@
         <v>27</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="20">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E15" s="9">
         <v>67.828389823647584</v>
@@ -980,7 +980,7 @@
         <v>29</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="20">
         <v>2020</v>
@@ -997,7 +997,7 @@
         <v>33</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" s="20">
         <v>2020</v>
@@ -1014,7 +1014,7 @@
         <v>34</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D18" s="20">
         <v>2020</v>
@@ -1031,10 +1031,10 @@
         <v>38</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" s="20">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E19" s="14">
         <v>92.486681189854508</v>
